--- a/case_study_results/Case_study_results_validation.xlsx
+++ b/case_study_results/Case_study_results_validation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukas/CERT_Python/MFA_project/biODYM modelling template/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C201F2DA-88B9-B84C-AB2F-8E7031D7FCFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A2DBB1-26AD-9C40-B990-F3CD573FB52E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" firstSheet="3" activeTab="6" xr2:uid="{A7E6CD03-1586-5348-BEDA-FCDFDFBAF949}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="17840" windowHeight="21100" firstSheet="5" activeTab="7" xr2:uid="{A7E6CD03-1586-5348-BEDA-FCDFDFBAF949}"/>
   </bookViews>
   <sheets>
     <sheet name="Flow_diagram" sheetId="2" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="TC_data_Biomass" sheetId="3" r:id="rId3"/>
     <sheet name="Flow_data_Carbon" sheetId="10" r:id="rId4"/>
     <sheet name="TC_data_Carbon" sheetId="11" r:id="rId5"/>
-    <sheet name="Model_validation_Biomass" sheetId="5" r:id="rId6"/>
-    <sheet name="Model_validation_Carbon" sheetId="12" r:id="rId7"/>
-    <sheet name="relSTD_default" sheetId="9" r:id="rId8"/>
+    <sheet name="relSTD_default" sheetId="9" r:id="rId6"/>
+    <sheet name="Model_validation_Biomass" sheetId="5" r:id="rId7"/>
+    <sheet name="Model_validation_Carbon" sheetId="12" r:id="rId8"/>
     <sheet name="Sequestration_process" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -360,17 +360,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>367786</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>513404</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>129769</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2255D40-52EA-905B-BF16-F66D0325ACC7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A074191C-CD41-80F8-EAED-EE1BA680D462}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -387,7 +387,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11895478" cy="6280220"/>
+          <a:ext cx="11227340" cy="6006897"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -713,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B07F1A-30FB-7E43-98EB-AB64FFE3C8B6}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5721,11 +5721,42 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8AEDF69-0002-EE44-95A2-4CE0B8CDF487}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O50" sqref="O50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2">
+        <v>0.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC2B94B1-5EE6-204E-8A48-076AA507860B}">
   <dimension ref="A1:AB22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="U47" sqref="U47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -8024,11 +8055,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26778DCB-B80F-F449-834E-1FDA4FB8D60F}">
   <dimension ref="A1:AB22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -10301,37 +10332,6 @@
       <c r="AB22">
         <f>SUM($AA$2:AA22)</f>
         <v>45.000000000000014</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8AEDF69-0002-EE44-95A2-4CE0B8CDF487}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2">
-        <v>0.05</v>
       </c>
     </row>
   </sheetData>
